--- a/biology/Médecine/Rudolf_Arndt/Rudolf_Arndt.xlsx
+++ b/biology/Médecine/Rudolf_Arndt/Rudolf_Arndt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolf Gottfried Arndt, né le 31 mars 1835 à Bialken, arrondissement de Marienwerder (de) en province de Prusse, et mort le 29 septembre 1900 à Greifswald en province de Poméranie, est un psychiatre et professeur d'université allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arndt étudia la médecine à Greifswald et à Halle. En février 1860, il obtint son doctorat de médecine à l'université de Greifswald avec la thèse De digestione quaestiones quaedam et il s'installa en 1861 comme médecin généraliste. Il prit part comme médecin à la guerre des Duchés de 1864, la guerre austro-prussienne de 1866 et de la guerre franco-allemande de 1870.
 Il eut dès 1867 l'habilitation universitaire pour enseigner à l'université de Greifswald et fut nommé directeur de l'asile d'aliénés local. En 1873, il est promu professeur agrégé de psychiatrie de l'université de Greifswald.
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Manuel de psychiatrie. Vienne et Leipzig, 1883 ;
 La neurasthénie, sa nature, son importance et son traitement du point de vue anatomique et physiologique, pour les médecins et les étudiants. Vienne et Leipzig, 1885 ;
